--- a/TAC.xlsx
+++ b/TAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ECEI\Marriott\Addresses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victoryang/Desktop/VICTOR YANG/already done/Box.com/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F605291-D1AD-4FDC-981F-2FDC0FBB97D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580E60F6-6497-B34A-9E58-F43E88740FD9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="114">
   <si>
     <t>Host Name</t>
   </si>
@@ -42,102 +42,60 @@
     <t>IP Address</t>
   </si>
   <si>
-    <t>HDQASPRDS03</t>
-  </si>
-  <si>
     <t>Nexus 9372</t>
   </si>
   <si>
     <t>172.23.45.2</t>
   </si>
   <si>
-    <t>HDQASPRDS04</t>
-  </si>
-  <si>
     <t>172.23.45.3</t>
   </si>
   <si>
-    <t>HDQASPRDZ1FW03</t>
-  </si>
-  <si>
     <t>Checkpoint Virtual</t>
   </si>
   <si>
     <t>172.23.45.7</t>
   </si>
   <si>
-    <t>HDQASPRDZ1FW04</t>
-  </si>
-  <si>
     <t>172.23.45.8</t>
   </si>
   <si>
-    <t>HDQASPRDZ2FW05</t>
-  </si>
-  <si>
     <t>172.23.45.9</t>
   </si>
   <si>
-    <t>HDQASPRDZ2FW06</t>
-  </si>
-  <si>
     <t>172.23.45.10</t>
   </si>
   <si>
-    <t>HDQASPRDZ2LB03</t>
-  </si>
-  <si>
     <t>F5 Virtual</t>
   </si>
   <si>
     <t>172.23.45.13</t>
   </si>
   <si>
-    <t>HDQASPRDZ2LB04</t>
-  </si>
-  <si>
     <t>172.23.45.14</t>
   </si>
   <si>
-    <t>HDQASPRDZ3LB05</t>
-  </si>
-  <si>
     <t>172.23.45.15</t>
   </si>
   <si>
-    <t>HDQASPRDZ3LB06</t>
-  </si>
-  <si>
     <t>172.23.45.16</t>
   </si>
   <si>
-    <t>HDQASPRDZ2IPS03</t>
-  </si>
-  <si>
     <t>Cisco sourcefire virtual</t>
   </si>
   <si>
     <t>172.23.45.19</t>
   </si>
   <si>
-    <t>HDQASPRDZ2IPS04</t>
-  </si>
-  <si>
     <t>172.23.45.20</t>
   </si>
   <si>
-    <t>HDQASPRDZ3SFMC</t>
-  </si>
-  <si>
     <t>Cisco Sourcefire management</t>
   </si>
   <si>
     <t>172.23.45.22</t>
   </si>
   <si>
-    <t>checkpoint-cmc-mgmt01</t>
-  </si>
-  <si>
     <t>Checkpoint management console</t>
   </si>
   <si>
@@ -186,102 +144,33 @@
     <t>172.23.77.23</t>
   </si>
   <si>
-    <t>HDQADPRDS03</t>
-  </si>
-  <si>
-    <t>HDQADPRDS04</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ1FW03</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ1FW04</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2FW05</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2FW06</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2LB03</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2LB04</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ3LB05</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ3LB06</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2IPS03</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ2IPS04</t>
-  </si>
-  <si>
-    <t>HDQADPRDZ3SFMC</t>
-  </si>
-  <si>
-    <t>HDQIMPRDS03</t>
-  </si>
-  <si>
     <t>172.23.13.2</t>
   </si>
   <si>
-    <t>HDQIMPRDS04</t>
-  </si>
-  <si>
     <t>172.23.13.3</t>
   </si>
   <si>
-    <t>HDQIMPRDZ1FW03</t>
-  </si>
-  <si>
     <t>172.23.13.7</t>
   </si>
   <si>
-    <t>HDQIMPRDZ1FW04</t>
-  </si>
-  <si>
     <t>172.23.13.8</t>
   </si>
   <si>
-    <t>HDQIMPRDZ2FW05</t>
-  </si>
-  <si>
     <t>172.23.13.9</t>
   </si>
   <si>
-    <t>HDQIMPRDZ2FW06</t>
-  </si>
-  <si>
     <t>172.23.13.10</t>
   </si>
   <si>
-    <t>HDQIMPRDZ2LB03</t>
-  </si>
-  <si>
     <t>172.23.13.13</t>
   </si>
   <si>
-    <t>HDQIMPRDZ2LB04</t>
-  </si>
-  <si>
     <t>172.23.13.14</t>
   </si>
   <si>
-    <t>HDQIMPRDZ3LB05</t>
-  </si>
-  <si>
     <t>172.23.13.15</t>
   </si>
   <si>
-    <t>HDQIMPRDZ3LB06</t>
-  </si>
-  <si>
     <t>172.23.13.16</t>
   </si>
   <si>
@@ -315,45 +204,9 @@
     <t>TACACS+</t>
   </si>
   <si>
-    <t>Boyers</t>
-  </si>
-  <si>
-    <t>Ashburn</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
     <t>Nexus 3K Management</t>
   </si>
   <si>
-    <t>HDQADVXRP1MGMTS01</t>
-  </si>
-  <si>
-    <t>HDQADVXRP1S01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDQADVXRP1S02</t>
-  </si>
-  <si>
-    <t>HDQIMVXRP1MGMTS01</t>
-  </si>
-  <si>
-    <t>HDQIMVXRP1S01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDQIMVXRP1S02</t>
-  </si>
-  <si>
-    <t>HDQASVXRP1MGMTS01</t>
-  </si>
-  <si>
-    <t>HDQASVXRP1S01</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> HDQASVXRP1S02</t>
-  </si>
-  <si>
     <t>172.23.66.11</t>
   </si>
   <si>
@@ -381,72 +234,15 @@
     <t>172.23.2.13</t>
   </si>
   <si>
-    <t>HDQIMPRDZ2IPS03</t>
-  </si>
-  <si>
-    <t>HDQIMPRDZ2IPS04</t>
-  </si>
-  <si>
-    <t>HDQIMPRDZ3SFMC</t>
-  </si>
-  <si>
     <t>Nexus 3K Agg B</t>
   </si>
   <si>
     <t>Nexus 3K Agg A</t>
   </si>
   <si>
-    <t>checkpoint-cmc-mgmt02</t>
-  </si>
-  <si>
-    <t>checkpoint-cmc-mgmt03</t>
-  </si>
-  <si>
     <t>Telnet</t>
   </si>
   <si>
-    <t>HDQIMTSTS03</t>
-  </si>
-  <si>
-    <t>HDQIMTSTS04</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ1FW03</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ1FW04</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2FW05</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2FW06</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2LB03</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2LB04</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ3LB05</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ3LB06</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2IPS03</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ2IPS04</t>
-  </si>
-  <si>
-    <t>HDQIMTSTZ3SFMC</t>
-  </si>
-  <si>
-    <t>checkpoint-cmc-mgmt04</t>
-  </si>
-  <si>
     <t>172.23.109.22</t>
   </si>
   <si>
@@ -498,15 +294,6 @@
     <t>172.23.98.13</t>
   </si>
   <si>
-    <t>HDQIMTSTVXRT1MGMTS01</t>
-  </si>
-  <si>
-    <t>HDQIMTSTVXRT1S01</t>
-  </si>
-  <si>
-    <t>HDQIMTSTVXRT1S02</t>
-  </si>
-  <si>
     <t>172.23.11.15</t>
   </si>
   <si>
@@ -516,54 +303,21 @@
     <t>172.23.75.15</t>
   </si>
   <si>
-    <t>Boyers Perf</t>
-  </si>
-  <si>
-    <t>Boyers Test</t>
-  </si>
-  <si>
     <t>172.23.109.51</t>
   </si>
   <si>
-    <t>Boyers Perf/Dev</t>
-  </si>
-  <si>
     <t>172.23.107.15</t>
   </si>
   <si>
-    <t>HDQIMTSTZ3FW07</t>
-  </si>
-  <si>
     <t>172.23.109.2</t>
   </si>
   <si>
-    <t>HDQIMTSTZ3LB07</t>
-  </si>
-  <si>
     <t>172.23.109.52</t>
   </si>
   <si>
-    <t>HDQIMTSTZ3LB08</t>
-  </si>
-  <si>
     <t>172.23.109.53</t>
   </si>
   <si>
-    <t>Frederick MCNC</t>
-  </si>
-  <si>
-    <t>HDQNCS9K01</t>
-  </si>
-  <si>
-    <t>HDQNCS9K02</t>
-  </si>
-  <si>
-    <t>HDQNCS3K01</t>
-  </si>
-  <si>
-    <t>HDQNCS3K02</t>
-  </si>
-  <si>
     <t>10.202.9.2</t>
   </si>
   <si>
@@ -576,38 +330,56 @@
     <t>10.202.9.14</t>
   </si>
   <si>
-    <t>HDQNCS3K03</t>
-  </si>
-  <si>
-    <t>HDQNCS3K04</t>
-  </si>
-  <si>
     <t>10.202.9.12</t>
   </si>
   <si>
     <t>10.202.9.13</t>
   </si>
   <si>
-    <t>Bethesda HQ</t>
-  </si>
-  <si>
-    <t>HDQBEDS01</t>
-  </si>
-  <si>
-    <t>HDQBEDS02</t>
-  </si>
-  <si>
     <t>162.130.87.60</t>
   </si>
   <si>
     <t>162.130.87.61</t>
+  </si>
+  <si>
+    <t>SITE A</t>
+  </si>
+  <si>
+    <t>SITE B</t>
+  </si>
+  <si>
+    <t>SITE C</t>
+  </si>
+  <si>
+    <t>SITE D</t>
+  </si>
+  <si>
+    <t>SITE E</t>
+  </si>
+  <si>
+    <t>SITE F HQ</t>
+  </si>
+  <si>
+    <t>HDQIM######</t>
+  </si>
+  <si>
+    <t>HDQAS######</t>
+  </si>
+  <si>
+    <t>HDQAD######</t>
+  </si>
+  <si>
+    <t>HDQNC######</t>
+  </si>
+  <si>
+    <t>HDQBE######</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,13 +416,6 @@
       <color theme="9"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -723,7 +488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -762,9 +527,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1050,26 +812,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C67" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="26" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="10" width="11.140625" customWidth="1"/>
+    <col min="9" max="10" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -1081,25 +843,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6"/>
@@ -1111,18 +873,18 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="1"/>
@@ -1131,18 +893,18 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="1"/>
@@ -1151,18 +913,18 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="1"/>
@@ -1171,18 +933,18 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="1"/>
@@ -1191,18 +953,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="1"/>
@@ -1211,18 +973,18 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
@@ -1231,18 +993,18 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -1251,18 +1013,18 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="1"/>
@@ -1271,18 +1033,18 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="1"/>
@@ -1291,18 +1053,18 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="1"/>
@@ -1311,18 +1073,18 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="1"/>
@@ -1331,18 +1093,18 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="1"/>
@@ -1351,18 +1113,18 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="1"/>
@@ -1371,18 +1133,18 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="1"/>
@@ -1391,18 +1153,18 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="1"/>
@@ -1411,18 +1173,18 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="1"/>
@@ -1431,18 +1193,18 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="1"/>
@@ -1451,16 +1213,16 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="12" t="s">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="1"/>
@@ -1469,7 +1231,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
@@ -1481,9 +1243,9 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>1</v>
@@ -1495,25 +1257,25 @@
         <v>2</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
@@ -1525,18 +1287,18 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
@@ -1545,18 +1307,18 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>6</v>
+        <v>110</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
@@ -1565,18 +1327,18 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="1"/>
@@ -1585,18 +1347,18 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>105</v>
+        <v>68</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="1"/>
@@ -1605,18 +1367,18 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>106</v>
+        <v>67</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="1"/>
@@ -1625,18 +1387,18 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
@@ -1645,18 +1407,18 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
@@ -1665,18 +1427,18 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>14</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -1685,18 +1447,18 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>15</v>
+        <v>110</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
@@ -1705,18 +1467,18 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
@@ -1725,18 +1487,18 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
@@ -1745,18 +1507,18 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
@@ -1765,18 +1527,18 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
@@ -1785,18 +1547,18 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
@@ -1805,18 +1567,18 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
@@ -1825,18 +1587,18 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
@@ -1845,18 +1607,18 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
@@ -1865,16 +1627,16 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="12" t="s">
-        <v>159</v>
+        <v>88</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
@@ -1883,7 +1645,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="5"/>
       <c r="C42" s="8"/>
@@ -1895,9 +1657,9 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>1</v>
@@ -1909,25 +1671,25 @@
         <v>2</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="5"/>
       <c r="C44" s="8"/>
@@ -1939,18 +1701,18 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
@@ -1959,18 +1721,18 @@
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -1979,18 +1741,18 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>98</v>
+        <v>57</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="1"/>
@@ -1999,18 +1761,18 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="1"/>
@@ -2019,18 +1781,18 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>100</v>
+        <v>67</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="1"/>
@@ -2039,18 +1801,18 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2059,18 +1821,18 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
@@ -2079,18 +1841,18 @@
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
@@ -2099,18 +1861,18 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
@@ -2119,18 +1881,18 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2139,18 +1901,18 @@
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
@@ -2159,18 +1921,18 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
@@ -2179,18 +1941,18 @@
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -2199,18 +1961,18 @@
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -2219,18 +1981,18 @@
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
@@ -2239,18 +2001,18 @@
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
@@ -2259,18 +2021,18 @@
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -2279,16 +2041,18 @@
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="D62" s="13" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -2297,9 +2061,9 @@
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B64" s="10" t="s">
         <v>1</v>
@@ -2311,25 +2075,25 @@
         <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="5"/>
       <c r="C65" s="8"/>
@@ -2341,18 +2105,18 @@
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>167</v>
+        <v>92</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2361,18 +2125,18 @@
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2381,18 +2145,18 @@
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>155</v>
+        <v>109</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="1"/>
@@ -2401,18 +2165,18 @@
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="1"/>
@@ -2421,18 +2185,18 @@
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="1"/>
@@ -2441,18 +2205,18 @@
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
@@ -2461,18 +2225,18 @@
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="D72" s="16" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2481,18 +2245,18 @@
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2501,18 +2265,18 @@
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2521,18 +2285,18 @@
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2541,18 +2305,18 @@
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
@@ -2561,18 +2325,18 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -2581,18 +2345,18 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
@@ -2601,18 +2365,18 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
@@ -2621,18 +2385,18 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="5"/>
@@ -2641,18 +2405,18 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="5"/>
@@ -2661,18 +2425,18 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="5"/>
@@ -2681,18 +2445,18 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="5"/>
@@ -2701,16 +2465,18 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="7"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="D84" s="7" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2719,18 +2485,18 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -2739,18 +2505,18 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -2759,9 +2525,9 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B88" s="10" t="s">
         <v>1</v>
@@ -2773,25 +2539,25 @@
         <v>2</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I88" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="5"/>
       <c r="C89" s="8"/>
@@ -2803,18 +2569,18 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>177</v>
+        <v>95</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
@@ -2823,18 +2589,18 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5"/>
@@ -2843,18 +2609,18 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="8" t="s">
-        <v>179</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="1"/>
@@ -2863,18 +2629,18 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>182</v>
+        <v>57</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="1"/>
@@ -2883,18 +2649,18 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>175</v>
+        <v>68</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="1"/>
@@ -2903,18 +2669,18 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>176</v>
+        <v>67</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
@@ -2923,7 +2689,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B96" s="9"/>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
@@ -2932,9 +2698,9 @@
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="B97" s="10" t="s">
         <v>1</v>
@@ -2946,25 +2712,25 @@
         <v>2</v>
       </c>
       <c r="E97" s="10" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G97" s="10" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="J97" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="5"/>
       <c r="C98" s="8"/>
@@ -2976,18 +2742,18 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
@@ -2996,18 +2762,18 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
